--- a/biology/Botanique/Parc_et_Château_de_la_Grange-aux-Champs/Parc_et_Château_de_la_Grange-aux-Champs.xlsx
+++ b/biology/Botanique/Parc_et_Château_de_la_Grange-aux-Champs/Parc_et_Château_de_la_Grange-aux-Champs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parc_et_Ch%C3%A2teau_de_la_Grange-aux-Champs</t>
+          <t>Parc_et_Château_de_la_Grange-aux-Champs</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le château de la Grange aux Champs est un château français érigé près de Nettancourt, dans le département de la Meuse, depuis le 3 septembre 1992, il est inscrit au titre des monuments historiques[1].
-Le Parc du château de la Grange aux Champs est un arboretum de 22 hectares[2]. Il peut être visité lors de l'opération "Rendez-vous aux jardins" le premier week-end de juin. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le château de la Grange aux Champs est un château français érigé près de Nettancourt, dans le département de la Meuse, depuis le 3 septembre 1992, il est inscrit au titre des monuments historiques.
+Le Parc du château de la Grange aux Champs est un arboretum de 22 hectares. Il peut être visité lors de l'opération "Rendez-vous aux jardins" le premier week-end de juin. 
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parc_et_Ch%C3%A2teau_de_la_Grange-aux-Champs</t>
+          <t>Parc_et_Château_de_la_Grange-aux-Champs</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,14 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans l'histoire de la France, la région de l'Argonne est connue principalement grâce à trois événements :
 La fuite de Varennes (20-21 juin 1791) a été un épisode important de la Révolution française, au cours duquel la famille royale a subi un grave déclin de l'autorité royale alors qu'elle tentait en vain de s'enfuir à l'étranger déguisée en famille aristocratique russe. Cet épisode a accru l'hostilité envers la monarchie en tant qu'institution, ainsi qu'envers Louis XVI et Marie-Antoinette en tant qu'individus.
 La bataille de Valmy, également connue sous le nom de canonnade de Valmy, a eu lieu le 20 septembre 1792, pendant les guerres révolutionnaires françaises, autour de la ville de Valmy dans le nord de la France. L'armée française du Nord, commandée par Charles François Dumouriez, et l'armée française du Centre, dirigée par François Christophe Kellermann, stoppent l'avancée de l'armée prussienne, dirigée par Charles Guillaume Ferdinand, duc de Brunswick-Lunebourg.
-La Grande Guerre de 1914-18, en particulier l'épisode de la bataille de l'Argonne, en septembre 1915[3].
+La Grande Guerre de 1914-18, en particulier l'épisode de la bataille de l'Argonne, en septembre 1915.
 La Grange aux Champs dépendait de l'abbaye de Montiers en Argonne probablement depuis 1237 ou c'est elle qui a acquis les terres de la commune. La ferme, qui est devenue un manoir en 1500, a été transmise de main en main. Nettancourt était à l'époque un centre du calvinisme en Champagne.
 La forteresse centrale daterait du XVIe siècle. Elle appartenait à la famille Nettancourt 1634-1785 qui n'y vivait pas mais exploitait une ferme sur un bail. À l'époque, le terrain était d'environ 30 hectares.
 Les bassins des étangs étaient sans doute déjà là, creusés par les moines pour élever des poissons. Ce sont les prochains acheteurs qui vont fabriquer les ornements du parc. M. Baudot, procureur du roi, et en 1802, la famille Lallemand Fontenoy : achat de la statue de Neptune, construction ou rénovation de la blanchisserie et des greniers à blé argoniens, destruction d'un kiosque au sommet de la colline pour y construire un pavillon.
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parc_et_Ch%C3%A2teau_de_la_Grange-aux-Champs</t>
+          <t>Parc_et_Château_de_la_Grange-aux-Champs</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,10 +564,12 @@
           <t>Collections</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le type de forêt installé après la période glaciaire était la hêtraie-sapinière avec ses sous-bois floraux et arbustifs encore présents dans la région : sorbier, moutarde, houx, nerprun, digitalis purpurea, épilobe, myrte, fougère aigle, bruyère, etc.
-Parmi les arbres du parc du château, il convient de mentionner les spécimens suivants : Acer japonicum, Acer negundo, Acer pseudoplatanus, Fagus sylvatica f. purpurea, séquoias, Sorbus aria, Gleditsia triacanthos, Quercus robur 'Fastigiata', Liriodendron tulipifera, Ilex aquifolium, Gymnocladus dioicus, Fraxinus excelsior 'Pendula'[4].
+Parmi les arbres du parc du château, il convient de mentionner les spécimens suivants : Acer japonicum, Acer negundo, Acer pseudoplatanus, Fagus sylvatica f. purpurea, séquoias, Sorbus aria, Gleditsia triacanthos, Quercus robur 'Fastigiata', Liriodendron tulipifera, Ilex aquifolium, Gymnocladus dioicus, Fraxinus excelsior 'Pendula'.
 Parmi les buissons, les cornouillers, les hortensias, les pivoines, les lilas.
 Les deux statues du parc ont été créées au XVIIIe siècle par le sculpteur Louis Humbert. Ils représentent Neptune et Amphitrite. On peut y admirer un lavoir d'Argonne, une double serre, un rucher, un réfrigérateur, un pavillon de pierre bordant une "ronde" de tilleuls, enfin, au bout du parc, quelques petits nids de boue au coin de l'étang des "Hauts de Bran". 
 </t>
